--- a/ImageConversion/ImageConversionTestCases.xlsx
+++ b/ImageConversion/ImageConversionTestCases.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\LED_Globe-master\LED_Globe-master\ImageConversion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="19155" windowHeight="3930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="118">
   <si>
     <t>Test ID</t>
   </si>
@@ -258,9 +263,6 @@
     <t>calcHori(-5, 10)</t>
   </si>
   <si>
-    <t>Return -1</t>
-  </si>
-  <si>
     <t>calcHori(100, 200)</t>
   </si>
   <si>
@@ -364,12 +366,21 @@
   </si>
   <si>
     <t>matrix = [[],[]]</t>
+  </si>
+  <si>
+    <t>Return 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load image with valid file format and non-empty. </t>
+  </si>
+  <si>
+    <t>Load image with valid file format and non-empty. For test, full black, w = 100 and h = 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,6 +483,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -519,7 +533,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,7 +568,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -765,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D22:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +942,7 @@
         <v>79</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="2"/>
@@ -947,10 +961,10 @@
         <v>28</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="2"/>
@@ -969,10 +983,10 @@
         <v>29</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="2"/>
@@ -991,10 +1005,10 @@
         <v>30</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
@@ -1013,10 +1027,10 @@
         <v>31</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="2"/>
@@ -1035,10 +1049,10 @@
         <v>32</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="2"/>
@@ -1061,16 +1075,16 @@
         <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="2"/>
@@ -1089,7 +1103,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>76</v>
@@ -1111,7 +1125,7 @@
         <v>26</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>78</v>
@@ -1129,7 +1143,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>13</v>
       </c>
@@ -1137,16 +1151,16 @@
         <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="2"/>
@@ -1165,7 +1179,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>76</v>
@@ -1187,7 +1201,7 @@
         <v>26</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>78</v>
@@ -1216,10 +1230,10 @@
         <v>46</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="6"/>
@@ -1236,10 +1250,10 @@
         <v>64</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="6"/>
@@ -1256,10 +1270,10 @@
         <v>65</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="6"/>
@@ -1279,7 +1293,7 @@
         <v>66</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="6"/>
@@ -1299,7 +1313,7 @@
         <v>51</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="6"/>
@@ -1316,10 +1330,10 @@
         <v>69</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="6"/>
@@ -1330,16 +1344,16 @@
         <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="6"/>
@@ -1369,10 +1383,10 @@
         <v>55</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="2"/>
@@ -1391,10 +1405,10 @@
         <v>57</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="2"/>
@@ -1413,10 +1427,10 @@
         <v>59</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="2"/>

--- a/ImageConversion/ImageConversionTestCases.xlsx
+++ b/ImageConversion/ImageConversionTestCases.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\LED_Globe-master\LED_Globe-master\ImageConversion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="122">
   <si>
     <t>Test ID</t>
   </si>
@@ -35,9 +30,6 @@
     <t>Expected Results</t>
   </si>
   <si>
-    <t>Acutal Results</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -245,21 +237,12 @@
     <t>thumbnail(Test.jpg)</t>
   </si>
   <si>
-    <t>Return Testthumbnail.jpg</t>
-  </si>
-  <si>
     <t>thumbnail(Test.pdf)</t>
   </si>
   <si>
-    <t>IOError</t>
-  </si>
-  <si>
     <t>Create an image of 0 width and 0 height then  thumbnail(Created.jpg)</t>
   </si>
   <si>
-    <t>TypeError</t>
-  </si>
-  <si>
     <t>calcHori(-5, 10)</t>
   </si>
   <si>
@@ -293,18 +276,12 @@
     <t>black_and_white(Test.jpg). Checking if black and white, call a test function checkBW(img) that checks the color of each pixel</t>
   </si>
   <si>
-    <t>Test function return True</t>
-  </si>
-  <si>
     <t>black_and_white(Test.pdf).</t>
   </si>
   <si>
     <t>Create an image of 0 width and 0 height then  black_and_white(Created.jpg)</t>
   </si>
   <si>
-    <t>bitArray(Test.jpg) and a test function will validate if the 2d array only contains 0s and 1s</t>
-  </si>
-  <si>
     <t>bitArray(Test.pdf)</t>
   </si>
   <si>
@@ -344,9 +321,6 @@
     <t>Input signalInterval(50)</t>
   </si>
   <si>
-    <t>Return 7.7407 x 10^-5</t>
-  </si>
-  <si>
     <t>Input signalInterval(300)</t>
   </si>
   <si>
@@ -375,12 +349,45 @@
   </si>
   <si>
     <t>Load image with valid file format and non-empty. For test, full black, w = 100 and h = 100</t>
+  </si>
+  <si>
+    <t>NameError</t>
+  </si>
+  <si>
+    <t>1. ValueError when creating empty image. 2. thumbNail with empty image gives an UnboundLocalError</t>
+  </si>
+  <si>
+    <t>Return 7.407 x 10^-5</t>
+  </si>
+  <si>
+    <t>Image converted to black and white</t>
+  </si>
+  <si>
+    <t>bit array filled with all 0s</t>
+  </si>
+  <si>
+    <t>bitArray(Test.jpg) and a test function will validate if the 2d array only contain 0s</t>
+  </si>
+  <si>
+    <t>prints input matrix</t>
+  </si>
+  <si>
+    <t>Does not print input array</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Return testCreated.jpg where h is shrunk to 48 pixels</t>
+  </si>
+  <si>
+    <t>img = testCreated.jpg, where w = 100 and h = 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -461,7 +468,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -472,7 +478,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,7 +583,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -779,15 +794,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D22:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="4" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="20.140625" customWidth="1"/>
@@ -795,32 +810,35 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9">
+        <v>43052</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -831,10 +849,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>2</v>
@@ -843,32 +861,32 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -876,53 +894,53 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="6"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -930,21 +948,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -952,21 +970,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -974,21 +992,21 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -996,21 +1014,21 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1018,21 +1036,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1040,31 +1058,31 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="6"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -1072,21 +1090,21 @@
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1094,53 +1112,53 @@
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="6"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1148,21 +1166,21 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1170,53 +1188,53 @@
         <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="5"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="6"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1224,19 +1242,21 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="6"/>
+      <c r="D26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="5"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,19 +1264,21 @@
         <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="5"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1264,19 +1286,21 @@
         <v>18</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1284,19 +1308,21 @@
         <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="5"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1304,39 +1330,43 @@
         <v>20</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="5"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>21</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1344,29 +1374,31 @@
         <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="5"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="6"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1374,21 +1406,21 @@
         <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="5"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1396,21 +1428,21 @@
         <v>24</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="5"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1418,21 +1450,21 @@
         <v>25</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="5"/>
       <c r="H36" s="2"/>
     </row>
   </sheetData>

--- a/ImageConversion/ImageConversionTestCases.xlsx
+++ b/ImageConversion/ImageConversionTestCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="124">
   <si>
     <t>Test ID</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>img = testCreated.jpg, where w = 100 and h = 100</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>testCreatedthumbnail.jpg created and is shrunk</t>
   </si>
 </sst>
 </file>
@@ -458,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -486,6 +492,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -794,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +814,7 @@
     <col min="4" max="4" width="31.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="4" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -867,7 +876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -886,8 +895,12 @@
       <c r="F7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -908,8 +921,12 @@
       <c r="F8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -930,8 +947,12 @@
       <c r="F9" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -962,8 +983,12 @@
       <c r="F11" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -984,8 +1009,12 @@
       <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="5">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1006,8 +1035,12 @@
       <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="5">
+        <v>144</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1028,8 +1061,12 @@
       <c r="F14" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1050,8 +1087,12 @@
       <c r="F15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="5">
+        <v>18</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1072,8 +1113,12 @@
       <c r="F16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="5">
+        <v>250</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -1104,8 +1149,12 @@
       <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1126,10 +1175,14 @@
       <c r="F19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="G19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>12</v>
       </c>
@@ -1148,8 +1201,12 @@
       <c r="F20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -1158,7 +1215,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1180,8 +1237,12 @@
       <c r="F22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -1202,8 +1263,12 @@
       <c r="F23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -1224,8 +1289,12 @@
       <c r="F24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -1256,8 +1325,12 @@
       <c r="F26" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1278,8 +1351,12 @@
       <c r="F27" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -1300,8 +1377,12 @@
       <c r="F28" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -1322,8 +1403,12 @@
       <c r="F29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -1344,8 +1429,12 @@
       <c r="F30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -1366,8 +1455,12 @@
       <c r="F31" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -1388,8 +1481,12 @@
       <c r="F32" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1420,8 +1517,12 @@
       <c r="F34" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="2"/>
+      <c r="G34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1442,8 +1543,12 @@
       <c r="F35" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -1464,8 +1569,12 @@
       <c r="F36" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="2"/>
+      <c r="G36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
